--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.103020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.103020.xlsx_with_dialog_acts.xlsx
@@ -559,12 +559,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1151,12 +1151,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1235,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1319,12 +1319,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2671,12 +2671,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3305,12 +3305,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3599,12 +3599,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3641,12 +3641,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3977,12 +3977,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4019,12 +4019,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4145,12 +4145,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4359,12 +4359,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4741,12 +4741,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4993,12 +4993,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5459,12 +5459,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5543,12 +5543,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5757,12 +5757,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6097,12 +6097,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6185,12 +6185,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6227,12 +6227,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6605,12 +6605,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6647,12 +6647,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6731,12 +6731,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7033,12 +7033,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7075,12 +7075,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7159,12 +7159,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7411,12 +7411,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7625,12 +7625,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8171,12 +8171,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8339,12 +8339,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8469,12 +8469,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8685,12 +8685,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8937,12 +8937,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9147,12 +9147,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9273,12 +9273,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9357,12 +9357,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9445,12 +9445,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9487,12 +9487,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9907,12 +9907,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10159,12 +10159,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10289,12 +10289,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10499,12 +10499,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10541,12 +10541,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10625,12 +10625,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10793,12 +10793,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11045,12 +11045,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11297,12 +11297,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11465,12 +11465,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11549,12 +11549,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11885,12 +11885,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12011,12 +12011,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12053,12 +12053,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12347,12 +12347,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12431,12 +12431,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12471,12 +12471,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12551,12 +12551,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12631,12 +12631,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12831,12 +12831,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13551,12 +13551,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13631,12 +13631,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13835,12 +13835,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14039,12 +14039,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14439,12 +14439,12 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14959,12 +14959,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15039,12 +15039,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15599,12 +15599,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15919,12 +15919,12 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15999,12 +15999,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16479,12 +16479,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16559,12 +16559,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16847,12 +16847,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18137,12 +18137,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19297,12 +19297,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19825,12 +19825,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19865,12 +19865,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19945,12 +19945,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20105,12 +20105,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20305,12 +20305,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20345,12 +20345,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20877,12 +20877,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20957,12 +20957,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21037,12 +21037,12 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21277,12 +21277,12 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21557,12 +21557,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21597,12 +21597,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21717,12 +21717,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21957,12 +21957,12 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22517,12 +22517,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22637,12 +22637,12 @@
       <c r="H538" t="inlineStr"/>
       <c r="I538" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22677,12 +22677,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
